--- a/medicine/Premiers secours et secourisme/Malaise_(premiers_secours)/Malaise_(premiers_secours).xlsx
+++ b/medicine/Premiers secours et secourisme/Malaise_(premiers_secours)/Malaise_(premiers_secours).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le « malaise » en premiers secours (et d'une manière générale pour le grand public) est une notion plus large que le sens médical strict (malaise vagal, lipothymie et syncope). Parmi les causes communes de malaise, on trouve les accidents vasculaires cérébraux (attaque cérébrale), les infarctus du myocarde (crise ou attaque cardiaque), les crises d'épilepsie, les crises d'asthme, le diabète sucré, l'hypoglycémie, les allergies, le collapsus cardiovasculaire (ou état de choc), les baisses de tension artérielle (notamment malaise vagal, par exemple à la suite d'une émotion), le stress… Les signes et plaintes seuls ne suffisent pas à déterminer l'origine du malaise, en tant que témoin, sauveteur ou secouriste, on ne peut pas connaître la cause — et on n'en a d'ailleurs pas besoin. La conduite à tenir est donc la même quel que soit le malaise : protéger, interroger, observer, mettre au repos, alerter les urgences médicales.
 La victime se plaint d'une sensation pénible et angoissante, parfois douloureuse. Souvent, la victime ne peut déterminer l'origine du trouble qu'elle ressent.
@@ -513,7 +525,9 @@
           <t>Conduite à tenir</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Si le malaise est passé, sans suite, une consultation médicale est fortement conseillée.
 La conduite à tenir pour le sauveteur, qui constate le malaise en cours, est la suivante :
@@ -555,7 +569,9 @@
           <t>Signes et plaintes spécifiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Un certain nombre de signes et de plaintes particuliers vont permettre au médecin du Samu d'évaluer l'état de la victime. Ces signes et plaintes sont des signaux d'alarme qu'il convient de rechercher pour les transmettre lors de l'appel aux services de secours :
 douleur serrant la poitrine, comme dans un étau
@@ -595,13 +611,50 @@
           <t>Cas particuliers</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Si la personne a un traitement médical à prendre en cas de malaise, on aide la personne à prendre son traitement : la maladie a déjà été diagnostiquée par un médecin, qui a prescrit ce traitement, et la victime connaît cette prescription. Si elle ne se souvient pas des prescriptions et qu'elle n'a pas son ordonnance sur elle, on demande l'avis du médecin (samu). Il ne s'agit pas d'administrer le médicament (rôle propre de l'infirmier), mais d'aider la personne à prendre son traitement, c'est-à-dire qu'on l'aide à chercher son traitement dans ses affaires et qu'éventuellement on lui apporte un verre d'eau.
 Certaines personnes vont demander spontanément du sucre. Dans ce cas, on leur donne du sucre (le sucre est un médicament pour certaines de ces personnes).
 Sinon, on s'abstient de donner quoi que ce soit, ni médicament, ni à boire ni à manger, sans avis médical.
-Idées reçues
-Dans le cas d'un malaise bénin (sensation de faiblesse qui passe rapidement), on invoque souvent une hypoglycémie passagère, et on donne du sucre afin de « requinquer » la personne. En fait, chez une personne non diabétique, l'hypoglycémie vraie est très rare, et le sucre met au minimum une vingtaine de minutes à être absorbé alors que l'état de la personne s'améliore souvent bien plus vite. Il s'agit en général d'un malaise vagal.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Malaise_(premiers_secours)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Premiers secours et secourisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Malaise_(premiers_secours)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Cas particuliers</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Idées reçues</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans le cas d'un malaise bénin (sensation de faiblesse qui passe rapidement), on invoque souvent une hypoglycémie passagère, et on donne du sucre afin de « requinquer » la personne. En fait, chez une personne non diabétique, l'hypoglycémie vraie est très rare, et le sucre met au minimum une vingtaine de minutes à être absorbé alors que l'état de la personne s'améliore souvent bien plus vite. Il s'agit en général d'un malaise vagal.
 </t>
         </is>
       </c>
